--- a/docs/timesheet_Adriaan_Glibert.xlsx
+++ b/docs/timesheet_Adriaan_Glibert.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS\Dossier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS\Examen\CMSDev_NMD3_AdriaanGlibert_2017-2018\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Productiedossier definitief (deployment, analyse, visuals plaatsen etc,,)</t>
+  </si>
+  <si>
+    <t>Cleanup code en kleine bug fixes</t>
+  </si>
+  <si>
+    <t>Reservaties editen, rijbewijs check, validatie en kleine wijzigingen</t>
   </si>
 </sst>
 </file>
@@ -605,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="79" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1478,29 +1484,50 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="7">
-        <f>SUM(E3:E51)</f>
-        <v>258.25</v>
+      <c r="A52" s="3">
+        <v>43114</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="3">
+        <v>43115</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7">
+        <f>SUM(E3:E53)</f>
+        <v>273.25</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="3"/>
